--- a/excel_examples/Viva did Optics lab.xlsx
+++ b/excel_examples/Viva did Optics lab.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20346"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\.shortcut-targets-by-id\0B3poYWGPw9k5ZjlDdGFkd1VWdk0\Horowitz Teaching\105L - 2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlim/Documents/Data Science Support/VHorowitz/phys-lab-tutorial/excel_examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A864CDA0-D696-4A6C-A047-00FAFEFFC826}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87E309DE-156C-2949-A606-391F686F806B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11775" xr2:uid="{40D62DC3-D445-402A-B575-8D8B57453265}"/>
+    <workbookView xWindow="4200" yWindow="5880" windowWidth="28800" windowHeight="11780" xr2:uid="{40D62DC3-D445-402A-B575-8D8B57453265}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,17 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -640,6 +651,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -647,7 +659,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -970,6 +981,9 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2.0768431983385252E-2</c:v>
+                </c:pt>
                 <c:pt idx="1">
                   <c:v>5.3763440860215048E-2</c:v>
                 </c:pt>
@@ -994,6 +1008,9 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
                 <c:pt idx="1">
                   <c:v>0.05</c:v>
                 </c:pt>
@@ -1300,6 +1317,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1307,7 +1325,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2532,9 +2549,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2572,7 +2589,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2678,7 +2695,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2820,7 +2837,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2830,28 +2847,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B41D4BF-0025-4432-9680-3989A024B706}">
   <dimension ref="A1:S14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.85546875" customWidth="1"/>
-    <col min="6" max="6" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.83203125" customWidth="1"/>
+    <col min="6" max="6" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19" customWidth="1"/>
-    <col min="10" max="10" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.28515625" customWidth="1"/>
+    <col min="10" max="10" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.33203125" customWidth="1"/>
     <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2907,7 +2924,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>10</v>
       </c>
@@ -2928,21 +2945,29 @@
         <v>78.099999999999994</v>
       </c>
       <c r="G2">
-        <f>B2-A2</f>
+        <f t="shared" ref="G2:G7" si="0">B2-A2</f>
         <v>10</v>
       </c>
       <c r="H2">
-        <f>E2-B2</f>
+        <f t="shared" ref="H2:H7" si="1">E2-B2</f>
         <v>48.150000000000006</v>
       </c>
       <c r="J2">
-        <f>(F2-D2)/2</f>
+        <f t="shared" ref="J2:J7" si="2">(F2-D2)/2</f>
         <v>9.9499999999999957</v>
       </c>
       <c r="K2">
         <f>J2+C2</f>
         <v>10.049999999999995</v>
       </c>
+      <c r="L2">
+        <f t="shared" ref="L2" si="3">1/H2</f>
+        <v>2.0768431983385252E-2</v>
+      </c>
+      <c r="M2">
+        <f t="shared" ref="M2" si="4">1/G2</f>
+        <v>0.1</v>
+      </c>
       <c r="N2">
         <f>1/(H2-K2)</f>
         <v>2.624671916010498E-2</v>
@@ -2968,7 +2993,7 @@
         <v>2.0008003201280392E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3">
         <f>A2</f>
         <v>10</v>
@@ -2989,57 +3014,57 @@
         <v>49.9</v>
       </c>
       <c r="G3">
-        <f>B3-A3</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="H3">
-        <f>E3-B3</f>
+        <f t="shared" si="1"/>
         <v>18.600000000000001</v>
       </c>
       <c r="J3">
-        <f>(F3-D3)/2</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K7" si="0">J3+C3</f>
+        <f t="shared" ref="K3:K7" si="5">J3+C3</f>
         <v>1.1000000000000001</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L3:L7" si="1">1/H3</f>
+        <f t="shared" ref="L3:L7" si="6">1/H3</f>
         <v>5.3763440860215048E-2</v>
       </c>
       <c r="M3">
-        <f t="shared" ref="M3:M7" si="2">1/G3</f>
+        <f t="shared" ref="M3:M7" si="7">1/G3</f>
         <v>0.05</v>
       </c>
       <c r="N3">
-        <f t="shared" ref="N3:N7" si="3">1/(H3-K3)</f>
+        <f t="shared" ref="N3:N7" si="8">1/(H3-K3)</f>
         <v>5.7142857142857141E-2</v>
       </c>
       <c r="O3">
-        <f t="shared" ref="O3:O7" si="4">1/(H3+K3)</f>
+        <f t="shared" ref="O3:O7" si="9">1/(H3+K3)</f>
         <v>5.0761421319796947E-2</v>
       </c>
       <c r="P3">
-        <f t="shared" ref="P3:P7" si="5">(N3-O3)/2</f>
+        <f t="shared" ref="P3:P7" si="10">(N3-O3)/2</f>
         <v>3.1907179115300971E-3</v>
       </c>
       <c r="Q3">
-        <f t="shared" ref="Q3:Q7" si="6">1/(G3-0.2)</f>
+        <f t="shared" ref="Q3:Q7" si="11">1/(G3-0.2)</f>
         <v>5.0505050505050504E-2</v>
       </c>
       <c r="R3">
-        <f t="shared" ref="R3:R7" si="7">1/(G3+0.2)</f>
+        <f t="shared" ref="R3:R7" si="12">1/(G3+0.2)</f>
         <v>4.9504950495049507E-2</v>
       </c>
       <c r="S3">
-        <f t="shared" ref="S3:S7" si="8">(Q3-R3)/2</f>
+        <f t="shared" ref="S3:S7" si="13">(Q3-R3)/2</f>
         <v>5.0005000500049843E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4">
-        <f t="shared" ref="A4:A7" si="9">A3</f>
+        <f t="shared" ref="A4:A7" si="14">A3</f>
         <v>10</v>
       </c>
       <c r="B4">
@@ -3058,57 +3083,57 @@
         <v>55.2</v>
       </c>
       <c r="G4">
-        <f>B4-A4</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="H4">
-        <f>E4-B4</f>
+        <f t="shared" si="1"/>
         <v>14.600000000000001</v>
       </c>
       <c r="J4">
-        <f>(F4-D4)/2</f>
+        <f t="shared" si="2"/>
         <v>0.45000000000000284</v>
       </c>
       <c r="K4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0.55000000000000282</v>
       </c>
       <c r="L4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>6.8493150684931503E-2</v>
       </c>
       <c r="M4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>3.3333333333333333E-2</v>
       </c>
       <c r="N4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>7.1174377224199295E-2</v>
       </c>
       <c r="O4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>6.6006600660065987E-2</v>
       </c>
       <c r="P4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>2.5838882820666542E-3</v>
       </c>
       <c r="Q4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>3.3557046979865772E-2</v>
       </c>
       <c r="R4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>3.3112582781456956E-2</v>
       </c>
       <c r="S4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>2.2223209920440787E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>10</v>
       </c>
       <c r="B5">
@@ -3127,57 +3152,57 @@
         <v>63.5</v>
       </c>
       <c r="G5">
-        <f>B5-A5</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="H5">
-        <f>E5-B5</f>
+        <f t="shared" si="1"/>
         <v>12.700000000000003</v>
       </c>
       <c r="J5">
-        <f>(F5-D5)/2</f>
+        <f t="shared" si="2"/>
         <v>0.44999999999999929</v>
       </c>
       <c r="K5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0.54999999999999927</v>
       </c>
       <c r="L5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>7.8740157480314946E-2</v>
       </c>
       <c r="M5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="N5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>8.2304526748971166E-2</v>
       </c>
       <c r="O5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>7.547169811320753E-2</v>
       </c>
       <c r="P5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>3.4164143178818177E-3</v>
       </c>
       <c r="Q5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>2.5125628140703519E-2</v>
       </c>
       <c r="R5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>2.4875621890547261E-2</v>
       </c>
       <c r="S5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>1.2500312507812868E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>10</v>
       </c>
       <c r="B6">
@@ -3197,57 +3222,57 @@
         <v>82.2</v>
       </c>
       <c r="G6">
-        <f>B6-A6</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="H6">
-        <f>E6-B6</f>
+        <f t="shared" si="1"/>
         <v>11.849999999999994</v>
       </c>
       <c r="J6">
-        <f>(F6-D6)/2</f>
+        <f t="shared" si="2"/>
         <v>0.35000000000000142</v>
       </c>
       <c r="K6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0.4500000000000014</v>
       </c>
       <c r="L6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>8.4388185654008477E-2</v>
       </c>
       <c r="M6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1.6666666666666666E-2</v>
       </c>
       <c r="N6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>8.7719298245614086E-2</v>
       </c>
       <c r="O6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>8.1300813008130107E-2</v>
       </c>
       <c r="P6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>3.2092426187419892E-3</v>
       </c>
       <c r="Q6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1.6722408026755852E-2</v>
       </c>
       <c r="R6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1.6611295681063121E-2</v>
       </c>
       <c r="S6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>5.5556172846365701E-5</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>10</v>
       </c>
       <c r="B7">
@@ -3266,60 +3291,60 @@
         <v>111.5</v>
       </c>
       <c r="G7">
-        <f>B7-A7</f>
+        <f t="shared" si="0"/>
         <v>90</v>
       </c>
       <c r="H7">
-        <f>E7-B7</f>
+        <f t="shared" si="1"/>
         <v>11.299999999999997</v>
       </c>
       <c r="J7">
-        <f>(F7-D7)/2</f>
+        <f t="shared" si="2"/>
         <v>0.14999999999999858</v>
       </c>
       <c r="K7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0.24999999999999858</v>
       </c>
       <c r="L7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>8.8495575221238965E-2</v>
       </c>
       <c r="M7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1.1111111111111112E-2</v>
       </c>
       <c r="N7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>9.0497737556561098E-2</v>
       </c>
       <c r="O7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>8.6580086580086618E-2</v>
       </c>
       <c r="P7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1.9588254882372397E-3</v>
       </c>
       <c r="Q7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1.1135857461024499E-2</v>
       </c>
       <c r="R7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1.1086474501108647E-2</v>
       </c>
       <c r="S7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>2.469147995792613E-5</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="Q10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="N11">
         <f t="array" ref="N11:O12">LINEST(M3:M7,L3:L7,TRUE,TRUE)</f>
         <v>-1.0913196354869765</v>
@@ -3332,7 +3357,7 @@
         <v>9.1889087544645562</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="N12">
         <v>5.2004249208147675E-2</v>
       </c>
@@ -3347,7 +3372,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="Q13">
         <f>1/(O11+O12)</f>
         <v>8.867668271324483</v>
@@ -3356,7 +3381,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="Q14">
         <f>(Q12-Q13)/2</f>
         <v>0.33331517101735653</v>

--- a/excel_examples/Viva did Optics lab.xlsx
+++ b/excel_examples/Viva did Optics lab.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlim/Documents/Data Science Support/VHorowitz/phys-lab-tutorial/excel_examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87E309DE-156C-2949-A606-391F686F806B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9A31614-43A7-2743-A3AF-53A5C9300272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4200" yWindow="5880" windowWidth="28800" windowHeight="11780" xr2:uid="{40D62DC3-D445-402A-B575-8D8B57453265}"/>
   </bookViews>
@@ -2847,8 +2847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B41D4BF-0025-4432-9680-3989A024B706}">
   <dimension ref="A1:S14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
